--- a/Protocole_de_validation_et_Protocole_de_communication.xlsx
+++ b/Protocole_de_validation_et_Protocole_de_communication.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>I. Spécifications</t>
   </si>
@@ -191,6 +191,30 @@
   <si>
     <t>Une fois identifié. Vérifier qu'il soit possible de consulter les résultats des parties précédentes  en cliquant sur "Visualiser les résultats".
  Si oui, vérifier la concordance des résultats.</t>
+  </si>
+  <si>
+    <t>Changer les cases dans le diagramme cas d'utilisations</t>
+  </si>
+  <si>
+    <t>Virer les "stockages", l'état de charge, transmission des données</t>
+  </si>
+  <si>
+    <t>faire une boucle dans "appareiller les pltos"</t>
+  </si>
+  <si>
+    <t>Diagramme de séquence "configurer la partie" noté chaque interaction présent sur la maquette</t>
+  </si>
+  <si>
+    <t>Enlever la fléche informe que le joueur s'est identifié dans "s'identifier"</t>
+  </si>
+  <si>
+    <t>Reprendre la trame</t>
+  </si>
+  <si>
+    <t>Etudier BLE</t>
+  </si>
+  <si>
+    <t>Réflechir sur la structure de la BDD</t>
   </si>
 </sst>
 </file>
@@ -572,13 +596,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B40" sqref="B38:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="90.28515625" customWidth="1"/>
     <col min="2" max="2" width="122.42578125" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
@@ -856,6 +880,46 @@
       </c>
       <c r="B33" s="7" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">

--- a/Protocole_de_validation_et_Protocole_de_communication.xlsx
+++ b/Protocole_de_validation_et_Protocole_de_communication.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>I. Spécifications</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Virer les "stockages", l'état de charge, transmission des données</t>
   </si>
   <si>
-    <t>faire une boucle dans "appareiller les pltos"</t>
-  </si>
-  <si>
     <t>Diagramme de séquence "configurer la partie" noté chaque interaction présent sur la maquette</t>
   </si>
   <si>
@@ -215,6 +212,24 @@
   </si>
   <si>
     <t>Réflechir sur la structure de la BDD</t>
+  </si>
+  <si>
+    <t>NZ / KIKI</t>
+  </si>
+  <si>
+    <t>Tout le monde</t>
+  </si>
+  <si>
+    <t>kiki / charly</t>
+  </si>
+  <si>
+    <t>Jordan / CeauMar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reprendre la maquette état des plots </t>
+  </si>
+  <si>
+    <t>faire une boucle dans "appareiller les plots"</t>
   </si>
 </sst>
 </file>
@@ -596,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +889,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -882,45 +897,83 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
